--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\web-app - medium\OCCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0701EABC-B37B-42E3-B158-9BA388A88C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,22 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -104,12 +120,18 @@
   </si>
   <si>
     <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>Notes on the Brazilian adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assumed the same currencies as the US model. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,6 +193,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +288,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +340,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,32 +532,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,115 +567,128 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>0.9143273584567535</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -620,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -628,22 +707,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9*About!$A$26</f>
+        <f>10^9*About!$A$29</f>
         <v>914327358.45675349</v>
       </c>
     </row>
@@ -653,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -661,22 +740,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <f>10^6*About!$A$26</f>
+        <f>10^6*About!$A$29</f>
         <v>914327.35845675354</v>
       </c>
     </row>
@@ -686,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -694,22 +773,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7">
-        <f>1*About!A26</f>
+        <f>1*About!A29</f>
         <v>0.9143273584567535</v>
       </c>
     </row>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\web-app - medium\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef14839acedddd/Pós-graduação/3 - Projetos/projeto EPS/Variáveis feitas/Variáveis marianne FINAL/web-app/OCCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0701EABC-B37B-42E3-B158-9BA388A88C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0701EABC-B37B-42E3-B158-9BA388A88C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0B77317-87C2-4F7E-8B27-7B933155823B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-16608" yWindow="1032" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Source:</t>
   </si>
@@ -65,9 +65,6 @@
     <t>One Large Output Currency Unit</t>
   </si>
   <si>
-    <t>For the U.S. model:</t>
-  </si>
-  <si>
     <t>Large Output Currency Unit</t>
   </si>
   <si>
@@ -83,49 +80,31 @@
     <t>OCCF Dollars per Small Output Currency Unit</t>
   </si>
   <si>
-    <t>billion 2018 dollars</t>
-  </si>
-  <si>
-    <t>2018 dollars</t>
-  </si>
-  <si>
     <t>See cpi.xlsx</t>
   </si>
   <si>
-    <t>which in this case is "2012 dollars per 2018 dollar."</t>
-  </si>
-  <si>
-    <t>2012 dollars are worth more than 2018 dollars, so we need a</t>
-  </si>
-  <si>
-    <t>value less than 1 in this variable.</t>
-  </si>
-  <si>
-    <t>2018 dollars per 2012 dollar</t>
-  </si>
-  <si>
-    <t>This is why we multiply, not divide, by the conversion</t>
-  </si>
-  <si>
-    <t>factor above.</t>
-  </si>
-  <si>
     <t>Medium Output Currency Unit</t>
   </si>
   <si>
-    <t>million 2018 dollars</t>
-  </si>
-  <si>
     <t>OCCF Dollars per Medium Output Currency Unit</t>
   </si>
   <si>
-    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
-  </si>
-  <si>
     <t>Notes on the Brazilian adaptation</t>
   </si>
   <si>
-    <t xml:space="preserve">We assumed the same currencies as the US model. </t>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>2019 dollars</t>
+  </si>
+  <si>
+    <t>million 2019 dollars</t>
+  </si>
+  <si>
+    <t>billion 2019 dollars</t>
+  </si>
+  <si>
+    <t>For the Brazil model:</t>
   </si>
 </sst>
 </file>
@@ -181,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,7 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,17 +524,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,132 +542,93 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
+      <c r="A15" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.9143273584567535</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="A27">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="B27" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +644,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -722,8 +663,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9*About!$A$29</f>
-        <v>914327358.45675349</v>
+        <f>10^9*About!$A$27</f>
+        <v>898000000</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,8 +696,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <f>10^6*About!$A$29</f>
-        <v>914327.35845675354</v>
+        <f>10^6*About!$A$27</f>
+        <v>898000</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,8 +729,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="7">
-        <f>1*About!A29</f>
-        <v>0.9143273584567535</v>
+        <f>1*About!A27</f>
+        <v>0.89800000000000002</v>
       </c>
     </row>
   </sheetData>
